--- a/old_database/crypto/s2cDNASample/s2cDNASample_468.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_468.xlsx
@@ -37,7 +37,7 @@
     <t>01.30.11</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_468</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/s2cDNASample/s2cDNASample_468.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_468.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Retrofitted_468</t>
   </si>
   <si>
-    <t xml:space="preserve">SolexaPrep</t>
+    <t xml:space="preserve">SuperScriptIII</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,12 +92,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -153,7 +147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -166,12 +160,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -225,7 +215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -248,7 +238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -267,11 +257,11 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -290,11 +280,11 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
@@ -313,11 +303,11 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
@@ -340,7 +330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
@@ -359,11 +349,11 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
@@ -382,11 +372,11 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>7</v>
       </c>
@@ -405,11 +395,11 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>7</v>
       </c>
@@ -432,7 +422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>7</v>
       </c>
@@ -451,11 +441,11 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>7</v>
       </c>
@@ -474,11 +464,11 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>7</v>
       </c>
@@ -497,11 +487,11 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>7</v>
       </c>
